--- a/data/teacher/Vinicius.xlsx
+++ b/data/teacher/Vinicius.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['MCT-3A-CAM', -, -, -]</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>['MCT-3A-CAM', -, -, -]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>[-, -, -, 'MCT-3A-CAM']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>[-, -, 'MEC-3B-Metrologia 2', -]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[-, -, -, 'MEC-3B-Metrologia 2']</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-CAM']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-CAM']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Metrologia 2']</t>
+          <t>[-, -, 'MEC-3B-Metrologia 2', -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-CAM']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-CAM']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Metrologia 2']</t>
+          <t>[-, -, 'MEC-3B-Metrologia 2', -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MCT-3A-CAM']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3B-Metrologia 2', -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Ajustagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2A-Ajustagem', -]</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Ajustagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2A-Ajustagem', -]</t>
         </is>
       </c>
     </row>
@@ -899,17 +899,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad.', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Ajustagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2A-Ajustagem', -]</t>
         </is>
       </c>
     </row>
@@ -931,17 +931,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['MEC-2A-Des. Maq. Cad.', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Ajustagem', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2A-Ajustagem', -]</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Vinicius.xlsx
+++ b/data/teacher/Vinicius.xlsx
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-CAM</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-CAM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Metrologia 2</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-CAM']</t>
+          <t>MCT-3A-CAM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Metrologia 2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Metrologia 2</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-CAM']</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Metrologia 2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-CAM</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-CAM']</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Metrologia 2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Metrologia 2</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MCT-3A-CAM']</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Metrologia 2', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Metrologia 2</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
+          <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2A-Ajustagem', -]</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2A-Des. Maq. Cad.']</t>
+          <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2A-Ajustagem', -]</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2A-Ajustagem', -]</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2A-Ajustagem', -]</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Vinicius.xlsx
+++ b/data/teacher/Vinicius.xlsx
@@ -473,19 +473,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>-</t>
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MCT-3A-CAM</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCT-3A-CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MEC-3B-Metrologia 2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MEC-3B-Metrologia 2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MCT-3A-CAM</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Metrologia 2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-CAM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MCT-3A-CAM</t>
+          <t>MEC-3B-Metrologia 2</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-CAM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-3B-Metrologia 2</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>MCT-3A-CAM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>MEC-2B-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>MEC-3B-Metrologia 2</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,17 +889,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MEC-2A-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Vinicius.xlsx
+++ b/data/teacher/Vinicius.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>MEC-3B-Metrologia 2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MEC-3B-Metrologia 2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEC-3B-Metrologia 2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>MEC-3B-Metrologia 2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -670,12 +670,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>MEC-2A-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>MEC-2A-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MEC-2A-Ajustagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>MEC-2A-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MEC-2A-Ajustagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>MEC-2A-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -894,22 +894,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MEC-2A-Ajustagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>MEC-2A-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -926,22 +926,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MEC-2A-Ajustagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>MEC-2A-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Vinicius.xlsx
+++ b/data/teacher/Vinicius.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-CAM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Metrologia 2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
     </row>
@@ -510,17 +510,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>MEC-3B-Metrologia 2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MEC-3B-Metrologia 2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MCT-3A-CAM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>MEC-3B-Metrologia 2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MCT-3A-CAM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,22 +633,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MCT-3A-CAM</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>MEC-2B-Des. Maq. Cad.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MEC-3B-Metrologia 2</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MCT-3A-CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-3A-CAM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MEC-2B-Des. Maq. Cad.</t>
+          <t>MCT-3A-CAM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MCT-3A-CAM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEC-2A-Ajustagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEC-2A-Ajustagem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>MEC-2A-Ajustagem</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>MEC-2A-Ajustagem</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2A-Ajustagem</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
